--- a/Config/GameConfig/Datas/__tables__.xlsx
+++ b/Config/GameConfig/Datas/__tables__.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Framework\Framework\Configs\GameConfig\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\UnityProject\Framework\Framework\Config\GameConfig\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D25BFDF-B341-4013-B361-2B8B2CA4232A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C2B9CF-EC0D-4111-A012-E9C585C0CDCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="67">
   <si>
     <t>##var</t>
   </si>
@@ -243,6 +243,22 @@
   </si>
   <si>
     <t>通用道具</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>network.TbErrorCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ErrorCode</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorcode.xlsx</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>resp</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -868,6 +884,23 @@
         <v>57</v>
       </c>
     </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
